--- a/FOIA SAR data/SM-3 BLOCK IIA/SM-3 GAO Data Draw.xlsx
+++ b/FOIA SAR data/SM-3 BLOCK IIA/SM-3 GAO Data Draw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Research\SM-3 BLOCK 2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg Sanders\Documents\Development\R-scripts-and-data\FOIA SAR data\SM-3 BLOCK IIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -200,6 +200,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,7 +424,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>40575</v>
+        <v>36923</v>
       </c>
       <c r="C2" s="4">
         <v>37347</v>
